--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56867.55941034649</v>
+        <v>11182879.44271738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56867.55941034649</v>
+        <v>11182879.44271738</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168509.6606281772</v>
+        <v>18788749.16258973</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168509.6606281772</v>
+        <v>18788749.16258973</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1416291563.921685</v>
+        <v>35854619.05987051</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16745.39875221079</v>
+        <v>846092.8652241337</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32187.02230689632</v>
+        <v>1471519.75790478</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47522.66327060046</v>
+        <v>2096946.650585426</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62356.19094493465</v>
+        <v>2722140.206830586</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77190.18426403445</v>
+        <v>3347383.121420901</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92005.69483000891</v>
+        <v>4107591.414609808</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106287.8819490825</v>
+        <v>5128956.722692448</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120178.9725553093</v>
+        <v>6072493.824718567</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>134430.8587084304</v>
+        <v>6782859.819210422</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>148806.8580360637</v>
+        <v>7557465.558613398</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>163348.4409475097</v>
+        <v>8330985.47501415</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>177890.0238589557</v>
+        <v>9104505.391414901</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>192430.4592285245</v>
+        <v>9878027.849928405</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>207798.1553929501</v>
+        <v>10353157.83043942</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>223304.5575679074</v>
+        <v>10650050.05241535</v>
       </c>
     </row>
   </sheetData>
